--- a/artfynd/A 43278-2025 artfynd.xlsx
+++ b/artfynd/A 43278-2025 artfynd.xlsx
@@ -974,7 +974,7 @@
         <v>130667805</v>
       </c>
       <c r="B5" t="n">
-        <v>92526</v>
+        <v>92530</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>130667586</v>
       </c>
       <c r="B6" t="n">
-        <v>97249</v>
+        <v>97253</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
